--- a/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T10:15:33+00:00</t>
+    <t>2024-12-30T08:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T08:25:45+00:00</t>
+    <t>2025-01-14T12:47:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T12:47:11+00:00</t>
+    <t>2025-01-16T12:57:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
+++ b/folfox-protocole-exampl/ig/StructureDefinition-date-time-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T12:57:14+00:00</t>
+    <t>2025-01-17T13:34:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
